--- a/documentacao/product_sprint_backlog.xlsx
+++ b/documentacao/product_sprint_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/nicolas_santos010_sptech_school/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\projeto-pi-sprint-1\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{BF667B89-C784-4FB3-ADFA-C0433C11E81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C183C718-787C-4358-AAC4-AD7C92869005}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E56214-9D67-4486-A4A9-146D5B11E583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="62">
   <si>
     <t>Backlog</t>
   </si>
@@ -219,13 +217,16 @@
   </si>
   <si>
     <t>Estruturas de dados definidas em um banco de dados MySQL para armazenar informações.</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +251,14 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +356,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,6 +391,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -725,23 +737,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="73.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="88" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -752,9 +764,9 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="17.25" thickBot="1">
       <c r="A2" s="11" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>2</v>
@@ -775,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickTop="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -798,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -821,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -844,7 +856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -867,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -890,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -913,8 +925,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -936,7 +948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -957,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -976,7 +988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -995,7 +1007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1014,7 +1026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1056,7 +1068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1075,7 +1087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -1096,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -1197,7 +1209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -1216,7 +1228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -1235,7 +1247,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -1254,7 +1266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -1273,7 +1285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
@@ -1311,7 +1323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -1330,7 +1342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="10" t="s">
         <v>49</v>
       </c>
@@ -1349,7 +1361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
         <v>50</v>
       </c>
@@ -1368,7 +1380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
         <v>51</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>52</v>
       </c>
@@ -1406,7 +1418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="23.25">
       <c r="A39" s="12" t="s">
         <v>36</v>
       </c>
@@ -1417,7 +1429,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="17.25" thickBot="1">
       <c r="A40" s="11" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" thickTop="1">
       <c r="A41" s="4" t="s">
         <v>28</v>
       </c>
@@ -1459,7 +1471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
@@ -1501,7 +1513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
         <v>33</v>
       </c>
@@ -1520,7 +1532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
         <v>34</v>
       </c>
@@ -1541,7 +1553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
         <v>35</v>
       </c>
@@ -1560,7 +1572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
         <v>36</v>
       </c>
@@ -1581,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
         <v>37</v>
       </c>
@@ -1602,7 +1614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
         <v>39</v>
       </c>
@@ -1623,7 +1635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
         <v>40</v>
       </c>
@@ -1642,7 +1654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
@@ -1661,7 +1673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
         <v>42</v>
       </c>
@@ -1680,7 +1692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
         <v>43</v>
       </c>
@@ -1699,7 +1711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
         <v>8</v>
       </c>
@@ -1720,7 +1732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
         <v>13</v>
       </c>
@@ -1741,7 +1753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="5" t="s">
         <v>15</v>
       </c>
@@ -1765,6 +1777,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C3:C5 C54:C56" twoDigitTextYear="1"/>
   </ignoredErrors>
@@ -1772,6 +1785,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b51fd1e8b3b325edc2e3e5af1016e876">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f375ab854fe714e6d25c0e520c080200" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -1947,35 +1975,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA33053E-EA8F-437C-9F67-47A4F0BC10D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1997,9 +2000,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA33053E-EA8F-437C-9F67-47A4F0BC10D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacao/product_sprint_backlog.xlsx
+++ b/documentacao/product_sprint_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\projeto-pi-sprint-1\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\clone PI\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E56214-9D67-4486-A4A9-146D5B11E583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E60B71-F1C1-4688-8ACA-FB6380FD3556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="86">
   <si>
     <t>Backlog</t>
   </si>
@@ -54,9 +56,6 @@
     <t>Prazo</t>
   </si>
   <si>
-    <t>Responsavel</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -75,9 +74,6 @@
     <t>Em Andamento</t>
   </si>
   <si>
-    <t>Documentaçãõ do projeto</t>
-  </si>
-  <si>
     <t>Giovana</t>
   </si>
   <si>
@@ -102,21 +98,12 @@
     <t>Luana</t>
   </si>
   <si>
-    <t>Tela do simulador financerio</t>
-  </si>
-  <si>
-    <t>Matheus</t>
-  </si>
-  <si>
     <t>Tabelas criadas no MySQL</t>
   </si>
   <si>
     <t>Instalação e Configuração IDE Arduíno</t>
   </si>
   <si>
-    <t>Setup de Client de vitualização</t>
-  </si>
-  <si>
     <t>Linux instalado na VM Local</t>
   </si>
   <si>
@@ -141,9 +128,6 @@
     <t>Site Estático Cadastro e Login</t>
   </si>
   <si>
-    <t>Driagrama de Solução Técnica</t>
-  </si>
-  <si>
     <t>Sprint Backlog</t>
   </si>
   <si>
@@ -153,9 +137,6 @@
     <t>Robert</t>
   </si>
   <si>
-    <t>Script de de criação do banco</t>
-  </si>
-  <si>
     <t>Simular a integração do sistema</t>
   </si>
   <si>
@@ -210,23 +191,116 @@
     <t>2, 3</t>
   </si>
   <si>
-    <t>Desenho de como o site será em qustão de design e também em sua instrustura</t>
-  </si>
-  <si>
     <t>Ferramenta que simula cenários financeiros para análise e projeção de resultados.</t>
   </si>
   <si>
     <t>Estruturas de dados definidas em um banco de dados MySQL para armazenar informações.</t>
   </si>
   <si>
-    <t>Requisitos</t>
+    <t>Site Estático simulador financeiro</t>
+  </si>
+  <si>
+    <t>Processo de instalação e configuração da plataforma Arduino para projetos eletrônicos.</t>
+  </si>
+  <si>
+    <t>Configuração do ambiente de virtualização para testes e desenvolvimento.</t>
+  </si>
+  <si>
+    <t>Sistema operacional Linux configurado em uma máquina virtual para desenvolvimento.</t>
+  </si>
+  <si>
+    <t>Documento que identifica, avalia e registra os riscos do projeto.</t>
+  </si>
+  <si>
+    <t>Detalhamento dos requisitos e funcionalidades da interface de visualização de dados.</t>
+  </si>
+  <si>
+    <t>Página web informativa que apresenta a identidade e os serviços da instituição.</t>
+  </si>
+  <si>
+    <t>Interface web que exibe métricas e dados em tempo real de forma visual.</t>
+  </si>
+  <si>
+    <t>Página web que permite usuários se registrarem e acessarem uma área restrita.</t>
+  </si>
+  <si>
+    <t>Representação visual que mostra como os componentes do sistema interagem.</t>
+  </si>
+  <si>
+    <t>Lista de tarefas e itens a serem trabalhados em uma sprint de desenvolvimento.</t>
+  </si>
+  <si>
+    <t>Representação das entidades, relacionamentos e regras de negócio do projeto.</t>
+  </si>
+  <si>
+    <t>Código que define e cria a estrutura do banco de dados no sistema.</t>
+  </si>
+  <si>
+    <t>Processo de teste que verifica como diferentes sistemas interagem entre si.</t>
+  </si>
+  <si>
+    <t>Implementação de uma API para comunicação com sensores locais no projeto.</t>
+  </si>
+  <si>
+    <t>Processo de instalação do sistema de gerenciamento de banco de dados MySQL na VM.</t>
+  </si>
+  <si>
+    <t>Revisão e confirmação de que a solução técnica proposta atende aos requisitos do projeto.</t>
+  </si>
+  <si>
+    <t>Representação visual que descreve o processo de resolução de problemas e atendimento ao cliente.</t>
+  </si>
+  <si>
+    <t>Software projetado para facilitar o suporte ai cliente.</t>
+  </si>
+  <si>
+    <t>Código que define e cria a estrutura do banco de dados no SQL Server.</t>
+  </si>
+  <si>
+    <t>Registro formal que descreve as alterações propostas em um projeto, sistema ou processo.</t>
+  </si>
+  <si>
+    <t>Documentação do projeto</t>
+  </si>
+  <si>
+    <t>Testes feitos para verificar a integração dos dados trazidos pelos sensores com as dashboards do sistema.</t>
+  </si>
+  <si>
+    <t>Testes feitos para verificar a integração do Arduino ao resto do sistema.</t>
+  </si>
+  <si>
+    <t>Testes feitos para verificar a integração dos dados trazidos pelo Arduino com o Banco de Dados.</t>
+  </si>
+  <si>
+    <t>Site do Data Acqui Ino incrementado com inteligência artificial</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>Desenho de como o site será em questão de design e também em sua instrutura</t>
+  </si>
+  <si>
+    <t>Tela do simulador financeiro</t>
+  </si>
+  <si>
+    <t>Pagina web que simula cenários financeiros para análise e projeção de resultados.</t>
+  </si>
+  <si>
+    <t>Diagrama de Solução Técnica</t>
+  </si>
+  <si>
+    <t>Setup de Client de virtualização</t>
+  </si>
+  <si>
+    <t>Script de criação do banco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,15 +330,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +358,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -350,13 +436,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,18 +501,50 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bom" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título" xfId="1" builtinId="15"/>
     <cellStyle name="Título 2" xfId="2" builtinId="17"/>
@@ -412,10 +560,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,26 +879,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="73.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="75.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -763,1043 +915,1149 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="J1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="J2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="8">
         <v>45547</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
+      <c r="J3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="8">
         <v>45547</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="8">
         <v>45547</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="8">
         <v>45547</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="8">
         <v>45547</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="8">
         <v>45547</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="8">
+        <v>45597</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="8">
         <v>45547</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="8">
         <v>45547</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="23">
+        <v>2</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="24">
+        <v>45596</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="8">
         <v>45547</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8">
         <v>45547</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="6">
+        <v>2</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
+      <c r="E13" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="6">
+        <v>2</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="6">
+        <v>2</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="8">
+        <v>45596</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
+      <c r="B17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="8">
+        <v>45547</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="8">
+        <v>45597</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="8">
+        <v>45547</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="9">
+        <v>45547</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8">
+        <v>45631</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F15" s="6" t="s">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4" t="s">
+      <c r="B23" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="19">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4" t="s">
+      <c r="B24" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="19">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4" t="s">
+      <c r="B25" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="19">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8">
-        <v>45631</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C26" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" s="8">
-        <v>45631</v>
-      </c>
-      <c r="F26" s="6"/>
+        <v>45596</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G26" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
       <c r="C27" s="6">
         <v>3</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27" s="8">
         <v>45631</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C28" s="6">
         <v>3</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" s="8">
         <v>45631</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
       <c r="C29" s="6">
         <v>3</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E29" s="8">
         <v>45631</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C30" s="6">
         <v>3</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="8">
         <v>45631</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="8">
         <v>45631</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C32" s="6">
         <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="8">
         <v>45631</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="6">
         <v>3</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="8">
         <v>45631</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="23.25">
-      <c r="A39" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="7">
         <v>3</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickTop="1">
-      <c r="A41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6">
-        <v>2</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6">
-        <v>2</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6">
-        <v>2</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6">
-        <v>2</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6">
-        <v>2</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6">
-        <v>2</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6">
-        <v>2</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6">
-        <v>2</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6">
-        <v>2</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6">
-        <v>2</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6">
-        <v>2</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="8">
-        <v>45547</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="8">
-        <v>45547</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="9">
-        <v>45547</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>12</v>
+      <c r="D34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="9">
+        <v>45631</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:C5 C54:C56" twoDigitTextYear="1"/>
+    <ignoredError sqref="C3:C5 L17:L19" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b51fd1e8b3b325edc2e3e5af1016e876">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f375ab854fe714e6d25c0e520c080200" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -1975,15 +2233,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -1999,7 +2258,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA33053E-EA8F-437C-9F67-47A4F0BC10D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2015,4 +2274,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentacao/product_sprint_backlog.xlsx
+++ b/documentacao/product_sprint_backlog.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\clone PI\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\github\projeto-pi\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E60B71-F1C1-4688-8ACA-FB6380FD3556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7C5C4C-E964-44AE-8525-2A80F6D5734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$G$37</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
   <si>
     <t>Backlog</t>
   </si>
@@ -62,9 +65,6 @@
     <t>Projeto criado e configurado no GitHub</t>
   </si>
   <si>
-    <t>1, 2, 3</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
@@ -110,9 +110,6 @@
     <t>Planilha de Riscos</t>
   </si>
   <si>
-    <t>A Fazer</t>
-  </si>
-  <si>
     <t>Especificações da Dashboard</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Sprint Backlog</t>
   </si>
   <si>
-    <t>Modelagem lógica do Projeto v1</t>
-  </si>
-  <si>
     <t>Robert</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>Representação gráfica que mostra a proposta de valor e a estrutura do negócio.</t>
   </si>
   <si>
-    <t>2, 3</t>
-  </si>
-  <si>
     <t>Ferramenta que simula cenários financeiros para análise e projeção de resultados.</t>
   </si>
   <si>
@@ -294,6 +285,21 @@
   </si>
   <si>
     <t>Script de criação do banco</t>
+  </si>
+  <si>
+    <t>Documentação do projeto 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modelagem lógica do banco de dados 2</t>
+  </si>
+  <si>
+    <t>Documentação do projeto 3</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,9 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -541,6 +544,28 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -879,29 +904,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="75.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="11" width="8.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
+    <col min="13" max="16" width="8.88671875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -915,15 +936,13 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
-      <c r="J1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -942,1119 +961,935 @@
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="22">
         <v>1</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="D3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="23">
+        <v>45547</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="23">
+        <v>45547</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="23">
+        <v>45547</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="23">
+        <v>45547</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="23">
+        <v>45547</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="23">
+        <v>45547</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="23">
+        <v>45547</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="23">
+        <v>45547</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="23">
+        <v>45547</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="23">
+        <v>45547</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8">
         <v>45547</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="J13" s="25"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="19">
         <v>2</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8">
-        <v>45547</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="6">
-        <v>2</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="8">
-        <v>45547</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="6">
-        <v>2</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8">
-        <v>45547</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="6">
-        <v>2</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="D14" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8">
-        <v>45547</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="6">
-        <v>2</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8">
-        <v>45547</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="6">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="8">
-        <v>45597</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8">
-        <v>45547</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="6">
-        <v>2</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8">
-        <v>45547</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="23">
-        <v>2</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="24">
-        <v>45596</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8">
-        <v>45547</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="6">
-        <v>2</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8">
-        <v>45547</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="6">
-        <v>2</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45596</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="6">
-        <v>2</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E14" s="8">
         <v>45596</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="6">
+        <v>86</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="6">
         <v>2</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="19">
-        <v>2</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="8">
         <v>45596</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="6">
-        <v>2</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="19">
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="8">
         <v>45596</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="6">
+        <v>10</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="19">
         <v>2</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="8">
-        <v>45596</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="8">
         <v>45596</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" s="8">
-        <v>45547</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>82</v>
+      <c r="A18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="8">
-        <v>45597</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="8">
-        <v>45547</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>83</v>
+      <c r="A19" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>18</v>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E19" s="8">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="9">
-        <v>45547</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E20" s="8">
         <v>45596</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="22">
+        <v>2</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="23">
+        <v>45596</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="8">
-        <v>45631</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>11</v>
+      <c r="G21" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="8">
-        <v>45596</v>
+        <v>45631</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="19">
+      <c r="A23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6">
         <v>2</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E23" s="8">
         <v>45596</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="19">
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E24" s="8">
         <v>45596</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>68</v>
+        <v>31</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="19">
         <v>2</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="8">
         <v>45596</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="A26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="19">
         <v>2</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E26" s="8">
         <v>45596</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C27" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="8">
+        <v>45596</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="8">
-        <v>45631</v>
-      </c>
-      <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C28" s="6">
         <v>3</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E28" s="8">
-        <v>45631</v>
-      </c>
-      <c r="F28" s="6"/>
+        <v>45547</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G28" s="6" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E29" s="8">
         <v>45631</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
       </c>
       <c r="C30" s="6">
         <v>3</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E30" s="8">
         <v>45631</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>42</v>
+      <c r="A31" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E31" s="8">
         <v>45631</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>76</v>
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
       </c>
       <c r="C32" s="6">
         <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E32" s="8">
         <v>45631</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C33" s="6">
         <v>3</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="8">
         <v>45631</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="A34" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="6">
         <v>3</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="8">
         <v>45631</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>24</v>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="8">
+        <v>45631</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8">
+        <v>45631</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="7">
+        <v>3</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="9">
+        <v>45631</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G37" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3:C5 L17:L19" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2234,26 +2069,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2277,9 +2101,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacao/product_sprint_backlog.xlsx
+++ b/documentacao/product_sprint_backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\github\projeto-pi\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb9df5b836737798/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7C5C4C-E964-44AE-8525-2A80F6D5734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{FBEC366B-C332-4B71-90B0-7EBE539D6718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
   </bookViews>
@@ -306,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,8 +350,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF166C6A"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FF166C6A"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,77 +393,28 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,129 +427,78 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -576,6 +509,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF166C6A"/>
+      <color rgb="FF1C8B88"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -907,18 +846,18 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:J17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="118.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="9" max="11" width="8.88671875" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
@@ -926,284 +865,256 @@
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10">
         <v>45547</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10">
         <v>45547</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="2"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10">
         <v>45547</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="2"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10">
         <v>45547</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="2"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="10">
         <v>45547</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10">
         <v>45547</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10">
         <v>45547</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="2"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10">
         <v>45547</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="9" t="s">
         <v>85</v>
       </c>
       <c r="J10"/>
@@ -1214,682 +1125,646 @@
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10">
         <v>45547</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="2"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="10">
         <v>45547</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="2"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14">
         <v>45547</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="13">
         <v>2</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="14">
         <v>45596</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="J14" s="4"/>
+      <c r="K14"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="13">
         <v>2</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="14">
         <v>45596</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="J15" s="4"/>
+      <c r="K15"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="13">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14">
         <v>45596</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="2"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="14">
         <v>45596</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="J17" s="4"/>
+      <c r="K17" s="2"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="14">
         <v>45596</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="J18" s="4"/>
+      <c r="K18" s="2"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="14">
         <v>45597</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="2"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="14">
         <v>45596</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="9">
         <v>2</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="D21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="10">
         <v>45596</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="13">
         <v>2</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="14">
         <v>45631</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="13">
         <v>2</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="D23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="14">
         <v>45596</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="13">
         <v>2</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="14">
         <v>45596</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="13">
         <v>2</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="D25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="14">
         <v>45596</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="13">
         <v>2</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="D26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="14">
         <v>45596</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="13">
         <v>2</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="14">
         <v>45596</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="13">
         <v>3</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="D28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="14">
         <v>45547</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="13">
         <v>3</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="D29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="14">
         <v>45631</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="13">
         <v>3</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="14">
         <v>45631</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="13">
         <v>3</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="14">
         <v>45631</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="13">
         <v>3</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="14">
         <v>45631</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="13">
         <v>3</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="D33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="14">
         <v>45631</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="13">
         <v>3</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="D34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="14">
         <v>45631</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="13">
         <v>3</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="8">
+      <c r="D35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="14">
         <v>45631</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="13">
         <v>3</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="D36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="14">
         <v>45631</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6" t="s">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="13">
         <v>3</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="9">
+      <c r="D37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="14">
         <v>45631</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="6" t="s">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:G37" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2069,15 +1944,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2101,17 +1987,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacao/product_sprint_backlog.xlsx
+++ b/documentacao/product_sprint_backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb9df5b836737798/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\github\projeto-pi\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{FBEC366B-C332-4B71-90B0-7EBE539D6718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170EC263-AD12-4A40-BFCA-D141AD63A10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>Backlog</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Gustavo</t>
   </si>
   <si>
-    <t>Concluído</t>
-  </si>
-  <si>
     <t>Protótipo do site institucional</t>
   </si>
   <si>
@@ -285,15 +282,6 @@
   </si>
   <si>
     <t>Script de criação do banco</t>
-  </si>
-  <si>
-    <t>Documentação do projeto 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modelagem lógica do banco de dados 2</t>
-  </si>
-  <si>
-    <t>Documentação do projeto 3</t>
   </si>
   <si>
     <t>OK</t>
@@ -306,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,12 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF006100"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -384,7 +366,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +390,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -441,6 +429,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -448,57 +462,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -845,911 +920,857 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="105.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="118.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="11" width="8.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16" width="8.88671875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="85.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="11" width="8.88671875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="4" customWidth="1"/>
+    <col min="13" max="16" width="8.88671875" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45547</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="2"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="13">
+        <v>45547</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="2"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13">
+        <v>45547</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="2"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="19">
+        <v>45547</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="2"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="16">
         <v>45547</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="2"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16">
+        <v>45547</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="2"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="16">
+        <v>45547</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="2"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="G9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="2"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="16">
+        <v>45547</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="16">
+        <v>45547</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="2"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="22">
+        <v>45547</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="2"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="35">
+        <v>2</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="36">
+        <v>45596</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="10"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="28">
+        <v>2</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="29">
+        <v>45596</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="10"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="28">
+        <v>2</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="29">
+        <v>45596</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="10"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="28">
+        <v>2</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="29">
+        <v>45596</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="2"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="28">
+        <v>2</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="29">
+        <v>45596</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="2"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="28">
+        <v>2</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="29">
+        <v>45597</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="2"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="28">
+        <v>2</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="29">
+        <v>45596</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="2"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="16">
+        <v>45596</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="28">
+        <v>2</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="29">
+        <v>45631</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="28">
+        <v>2</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="29">
+        <v>45596</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="28">
+        <v>2</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="29">
+        <v>45596</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="28">
+        <v>2</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="29">
+        <v>45596</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="28">
+        <v>2</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="29">
+        <v>45596</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="28">
+        <v>2</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="29">
+        <v>45596</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="24">
+        <v>3</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="25">
+        <v>45631</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="29">
+        <v>45631</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="28">
+        <v>3</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="29">
+        <v>45631</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="28">
+        <v>3</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="29">
+        <v>45631</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
-        <v>45547</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="2"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
-        <v>45547</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
-        <v>45547</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="10">
-        <v>45547</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="2"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10">
-        <v>45547</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="2"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>45547</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="2"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10">
-        <v>45547</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-    </row>
-    <row r="11" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10">
-        <v>45547</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="2"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="10">
-        <v>45547</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="2"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="C31" s="28">
+        <v>3</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="29">
+        <v>45631</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="14">
-        <v>45547</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="13">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="14">
-        <v>45596</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="13">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="14">
-        <v>45596</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="14">
-        <v>45596</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="2"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="13">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="14">
-        <v>45596</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="2"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="13">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="14">
-        <v>45596</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="2"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="14">
-        <v>45597</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="2"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="13">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="14">
-        <v>45596</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="10">
-        <v>45596</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="13">
-        <v>2</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="14">
+    </row>
+    <row r="32" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="28">
+        <v>3</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="29">
         <v>45631</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="13">
-        <v>2</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="14">
-        <v>45596</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="13">
-        <v>2</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="14">
-        <v>45596</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="13">
-        <v>2</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="14">
-        <v>45596</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="13">
-        <v>2</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="14">
-        <v>45596</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="13">
-        <v>2</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="14">
-        <v>45596</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="13">
+      <c r="F32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="28">
         <v>3</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="14">
-        <v>45547</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="D33" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="29">
+        <v>45631</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="28">
         <v>3</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="D34" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="29">
         <v>45631</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="13">
-        <v>3</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="14">
-        <v>45631</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="13">
-        <v>3</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="14">
-        <v>45631</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="13">
-        <v>3</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="14">
-        <v>45631</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="13">
-        <v>3</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="14">
-        <v>45631</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="13">
-        <v>3</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="14">
-        <v>45631</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="13">
-        <v>3</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="14">
-        <v>45631</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="13">
-        <v>3</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="14">
-        <v>45631</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="13">
-        <v>3</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="14">
-        <v>45631</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G37" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}"/>
@@ -1768,6 +1789,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b51fd1e8b3b325edc2e3e5af1016e876">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f375ab854fe714e6d25c0e520c080200" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -1943,15 +1973,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
   <ds:schemaRefs>
@@ -1969,6 +1990,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA33053E-EA8F-437C-9F67-47A4F0BC10D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1984,12 +2013,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentacao/product_sprint_backlog.xlsx
+++ b/documentacao/product_sprint_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\github\projeto-pi\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170EC263-AD12-4A40-BFCA-D141AD63A10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44750B46-F696-4D96-A9C9-EA33141B9F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
   <si>
     <t>Backlog</t>
   </si>
@@ -288,6 +288,54 @@
   </si>
   <si>
     <t>Pendente</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t>Tam (#)</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>SP4</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>Planejado</t>
   </si>
 </sst>
 </file>
@@ -397,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -455,6 +503,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -462,32 +547,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -530,34 +603,31 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,6 +644,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -599,6 +699,962 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$L$3:$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SP1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SP3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SP4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-284D-44A2-8F01-CF2F23BBDAE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$L$3:$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SP1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SP3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SP4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-284D-44A2-8F01-CF2F23BBDAE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="44130671"/>
+        <c:axId val="44133551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="44130671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44133551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44133551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44130671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10244</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>608320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>315044</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165208</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A4FAF3-5AFA-43DD-724C-D5C15AB71543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,884 +1976,1210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="11" width="8.88671875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="4" customWidth="1"/>
-    <col min="13" max="16" width="8.88671875" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="85.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="40">
+        <v>5</v>
+      </c>
+      <c r="G3" s="40">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
         <v>45547</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="2"/>
-      <c r="N3" s="9"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="41">
+        <f>SUM(M4:M7,)</f>
+        <v>309</v>
+      </c>
+      <c r="N3" s="41">
+        <f>SUM(N4:N7,)</f>
+        <v>309</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="40">
+        <v>21</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
         <v>45547</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="2"/>
-      <c r="N4" s="9"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="40">
+        <v>93</v>
+      </c>
+      <c r="N4" s="40">
+        <f>SUM(F3:F12,)</f>
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="40">
+        <v>3</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
         <v>45547</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="I5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="2"/>
-      <c r="N5" s="9"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="40">
+        <v>104</v>
+      </c>
+      <c r="N5" s="40">
+        <f>SUM(F13:F26,)</f>
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="40">
+        <v>13</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>45547</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="40">
+        <v>112</v>
+      </c>
+      <c r="N6" s="40">
+        <f>SUM(F27:F34,)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="40">
         <v>8</v>
       </c>
-      <c r="E6" s="19">
+      <c r="G7" s="40">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12">
         <v>45547</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="I7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="40">
+        <v>0</v>
+      </c>
+      <c r="N7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="40">
+        <v>13</v>
+      </c>
+      <c r="G8" s="40">
+        <v>2</v>
+      </c>
+      <c r="H8" s="12">
+        <v>45547</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="41">
+        <f>AVERAGE(N4:N6,)</f>
+        <v>77.25</v>
+      </c>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="40">
+        <v>5</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>45547</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="40">
+        <v>5</v>
+      </c>
+      <c r="G10" s="40">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12">
+        <v>45547</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="40">
+        <v>5</v>
+      </c>
+      <c r="G11" s="40">
+        <v>3</v>
+      </c>
+      <c r="H11" s="12">
+        <v>45547</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="40">
+        <v>3</v>
+      </c>
+      <c r="G12" s="40">
+        <v>3</v>
+      </c>
+      <c r="H12" s="18">
+        <v>45547</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="30">
+        <v>2</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="40">
+        <v>5</v>
+      </c>
+      <c r="G13" s="40">
+        <v>1</v>
+      </c>
+      <c r="H13" s="31">
+        <v>45596</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="24">
+        <v>2</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="40">
+        <v>13</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25">
+        <v>45596</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="24">
+        <v>2</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="40">
+        <v>8</v>
+      </c>
+      <c r="G15" s="40">
+        <v>2</v>
+      </c>
+      <c r="H15" s="25">
+        <v>45596</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="24">
+        <v>2</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="40">
+        <v>13</v>
+      </c>
+      <c r="G16" s="40">
+        <v>2</v>
+      </c>
+      <c r="H16" s="25">
+        <v>45596</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="J16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="24">
+        <v>2</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="40">
+        <v>5</v>
+      </c>
+      <c r="G17" s="40">
+        <v>2</v>
+      </c>
+      <c r="H17" s="25">
+        <v>45596</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="24">
+        <v>2</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="40">
+        <v>8</v>
+      </c>
+      <c r="G18" s="40">
+        <v>2</v>
+      </c>
+      <c r="H18" s="25">
+        <v>45597</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="40">
+        <v>8</v>
+      </c>
+      <c r="G19" s="40">
+        <v>2</v>
+      </c>
+      <c r="H19" s="25">
+        <v>45596</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="40">
+        <v>5</v>
+      </c>
+      <c r="G20" s="40">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>45596</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="2"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="15">
+    </row>
+    <row r="21" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="24">
+        <v>2</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="40">
+        <v>8</v>
+      </c>
+      <c r="G21" s="40">
         <v>1</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="H21" s="25">
+        <v>45631</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="24">
+        <v>2</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="40">
+        <v>8</v>
+      </c>
+      <c r="G22" s="40">
+        <v>2</v>
+      </c>
+      <c r="H22" s="25">
+        <v>45596</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="24">
+        <v>2</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="16">
-        <v>45547</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="E23" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="40">
+        <v>8</v>
+      </c>
+      <c r="G23" s="40">
+        <v>3</v>
+      </c>
+      <c r="H23" s="25">
+        <v>45596</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="40">
+        <v>8</v>
+      </c>
+      <c r="G24" s="40">
+        <v>3</v>
+      </c>
+      <c r="H24" s="25">
+        <v>45596</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="24">
+        <v>2</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="40">
+        <v>8</v>
+      </c>
+      <c r="G25" s="40">
+        <v>3</v>
+      </c>
+      <c r="H25" s="25">
+        <v>45596</v>
+      </c>
+      <c r="I25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="2"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="J25" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="24">
+        <v>2</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="40">
+        <v>8</v>
+      </c>
+      <c r="G26" s="40">
+        <v>3</v>
+      </c>
+      <c r="H26" s="25">
+        <v>45596</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="20">
+        <v>3</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="40">
+        <v>13</v>
+      </c>
+      <c r="G27" s="40">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="H27" s="21">
+        <v>45631</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="24">
+        <v>3</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="40">
+        <v>13</v>
+      </c>
+      <c r="G28" s="40">
+        <v>2</v>
+      </c>
+      <c r="H28" s="25">
+        <v>45631</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="24">
+        <v>3</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="40">
+        <v>13</v>
+      </c>
+      <c r="G29" s="40">
+        <v>1</v>
+      </c>
+      <c r="H29" s="25">
+        <v>45631</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="24">
+        <v>3</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="16">
-        <v>45547</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="2"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="E30" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="40">
         <v>8</v>
       </c>
-      <c r="E9" s="16">
-        <v>45547</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="2"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="G30" s="40">
+        <v>2</v>
+      </c>
+      <c r="H30" s="25">
+        <v>45631</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="24">
+        <v>3</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="16">
-        <v>45547</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="E31" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="40">
+        <v>13</v>
+      </c>
+      <c r="G31" s="40">
+        <v>3</v>
+      </c>
+      <c r="H31" s="25">
+        <v>45631</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="24">
+        <v>3</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="16">
-        <v>45547</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="2"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="22">
-        <v>45547</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="2"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="E32" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="40">
+        <v>13</v>
+      </c>
+      <c r="G32" s="40">
+        <v>3</v>
+      </c>
+      <c r="H32" s="25">
+        <v>45631</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="24">
+        <v>3</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="40">
         <v>21</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="35">
+      <c r="G33" s="40">
+        <v>3</v>
+      </c>
+      <c r="H33" s="25">
+        <v>45631</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="24">
+        <v>3</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="40">
+        <v>21</v>
+      </c>
+      <c r="G34" s="40">
         <v>2</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="36">
-        <v>45596</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="10"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="28">
-        <v>2</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="29">
-        <v>45596</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="10"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="28">
-        <v>2</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="29">
-        <v>45596</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="10"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="28">
-        <v>2</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="29">
-        <v>45596</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="2"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="28">
-        <v>2</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="29">
-        <v>45596</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="2"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="28">
-        <v>2</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="29">
-        <v>45597</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="2"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="28">
-        <v>2</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="29">
-        <v>45596</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="2"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="15">
-        <v>2</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="16">
-        <v>45596</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="28">
-        <v>2</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="29">
+      <c r="H34" s="25">
         <v>45631</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="28">
-        <v>2</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="29">
-        <v>45596</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="28">
-        <v>2</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="29">
-        <v>45596</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="28">
-        <v>2</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="29">
-        <v>45596</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="28">
-        <v>2</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="29">
-        <v>45596</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="28">
-        <v>2</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="29">
-        <v>45596</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="28" t="s">
+      <c r="I34" s="24"/>
+      <c r="J34" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="24">
-        <v>3</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="25">
-        <v>45631</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="29">
-        <v>45631</v>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="28">
-        <v>3</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="29">
-        <v>45631</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="28">
-        <v>3</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="29">
-        <v>45631</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="28">
-        <v>3</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="29">
-        <v>45631</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="28">
-        <v>3</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="29">
-        <v>45631</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="28">
-        <v>3</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="29">
-        <v>45631</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="28">
-        <v>3</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="29">
-        <v>45631</v>
-      </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G37" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b51fd1e8b3b325edc2e3e5af1016e876">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f375ab854fe714e6d25c0e520c080200" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -1973,31 +3355,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA33053E-EA8F-437C-9F67-47A4F0BC10D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2013,4 +3386,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>